--- a/Tabela_para_1GBvRAM.xlsx
+++ b/Tabela_para_1GBvRAM.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView windowWidth="20385" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha4" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+  <si>
+    <t>1GBvRAM</t>
+  </si>
+  <si>
+    <t>1vCPU</t>
+  </si>
+  <si>
+    <t>PCNET_PCI</t>
+  </si>
+  <si>
+    <t>PRO_1000_MT_DESKTOP</t>
+  </si>
+  <si>
+    <t>PRO_1000_T_SERVER</t>
+  </si>
+  <si>
+    <t>Pcnet_FAST_III</t>
+  </si>
   <si>
     <t>LXC</t>
   </si>
@@ -33,64 +41,545 @@
     <t>DOCKER</t>
   </si>
   <si>
-    <t>1GBvRAM</t>
-  </si>
-  <si>
-    <t>1vCPU</t>
+    <t>HURST</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>MEDIA BANDA TCP</t>
+  </si>
+  <si>
+    <t>0.7394107</t>
+  </si>
+  <si>
+    <t>58030.6</t>
+  </si>
+  <si>
+    <t>0.7906854</t>
+  </si>
+  <si>
+    <t>58828.44</t>
+  </si>
+  <si>
+    <t>0.7118303</t>
+  </si>
+  <si>
+    <t>131804.6</t>
+  </si>
+  <si>
+    <t>0.6634508</t>
+  </si>
+  <si>
+    <t>65614.42</t>
+  </si>
+  <si>
+    <t>0.6867613</t>
+  </si>
+  <si>
+    <t>66727.46</t>
+  </si>
+  <si>
+    <t>0.6222715</t>
+  </si>
+  <si>
+    <t>16779.38</t>
+  </si>
+  <si>
+    <t>0.7217945</t>
   </si>
   <si>
     <t>2vCPU</t>
   </si>
   <si>
+    <t>0.4980544</t>
+  </si>
+  <si>
+    <t>39894.33</t>
+  </si>
+  <si>
+    <t>0.6371447</t>
+  </si>
+  <si>
+    <t>36963.37</t>
+  </si>
+  <si>
+    <t>0.6943425</t>
+  </si>
+  <si>
+    <t>0.5307733</t>
+  </si>
+  <si>
+    <t>135256.6</t>
+  </si>
+  <si>
+    <t>0.5786442</t>
+  </si>
+  <si>
+    <t>0.5819227</t>
+  </si>
+  <si>
+    <t>47885.32</t>
+  </si>
+  <si>
+    <t>0.6084446</t>
+  </si>
+  <si>
+    <t>0.7970645</t>
+  </si>
+  <si>
     <t>4vCPU</t>
   </si>
   <si>
+    <t>0.5807306</t>
+  </si>
+  <si>
+    <t>37122.23</t>
+  </si>
+  <si>
+    <t>0.5800133</t>
+  </si>
+  <si>
+    <t>39385.42</t>
+  </si>
+  <si>
+    <t>0.554657</t>
+  </si>
+  <si>
+    <t>0.6602715</t>
+  </si>
+  <si>
+    <t>128443.3</t>
+  </si>
+  <si>
+    <t>0.6586622</t>
+  </si>
+  <si>
+    <t>0.6445071</t>
+  </si>
+  <si>
+    <t>44158.15</t>
+  </si>
+  <si>
+    <t>0.796573</t>
+  </si>
+  <si>
+    <t>25951.71</t>
+  </si>
+  <si>
+    <t>0.6655906</t>
+  </si>
+  <si>
+    <t>36924.62</t>
+  </si>
+  <si>
     <t>8vCPU</t>
   </si>
   <si>
-    <t>HURST</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>PCNET_PCI</t>
-  </si>
-  <si>
-    <t>PRO_1000_T_SERVER</t>
-  </si>
-  <si>
-    <t>PRO_1000_MT_DESKTOP</t>
-  </si>
-  <si>
-    <t>Pcnet_FAST_III</t>
-  </si>
-  <si>
-    <t>MEDIA BANDA TCP</t>
+    <t>0.596921</t>
+  </si>
+  <si>
+    <t>38189.07</t>
+  </si>
+  <si>
+    <t>0.6394026</t>
+  </si>
+  <si>
+    <t>38183.32</t>
+  </si>
+  <si>
+    <t>0.6356163</t>
+  </si>
+  <si>
+    <t>0.5178456</t>
+  </si>
+  <si>
+    <t>106202.8</t>
+  </si>
+  <si>
+    <t>0.7214233</t>
+  </si>
+  <si>
+    <t>0.6496637</t>
+  </si>
+  <si>
+    <t>43400.75</t>
+  </si>
+  <si>
+    <t>0.52255</t>
+  </si>
+  <si>
+    <t>0.4432349</t>
+  </si>
+  <si>
+    <t>109667.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,27 +587,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -129,10 +905,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="89919A"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="1F2326"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -167,7 +943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -202,7 +978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -376,54 +1152,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.2466666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.74666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.7133333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.1266666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.12" customWidth="1"/>
+    <col min="6" max="6" width="17.7133333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.37333333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.62" customWidth="1"/>
+    <col min="9" max="9" width="17.7133333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="8.62" customWidth="1"/>
+    <col min="12" max="12" width="17.7133333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="9.99333333333333" customWidth="1"/>
+    <col min="15" max="15" width="17.7133333333333" customWidth="1"/>
+    <col min="16" max="16" width="11.88" customWidth="1"/>
+    <col min="17" max="17" width="11.4933333333333" customWidth="1"/>
+    <col min="18" max="18" width="17.7133333333333" customWidth="1"/>
+    <col min="19" max="19" width="10.3733333333333" customWidth="1"/>
+    <col min="20" max="20" width="9.74666666666667" customWidth="1"/>
+    <col min="21" max="21" width="17.7133333333333" customWidth="1"/>
+    <col min="22" max="22" width="10.6266666666667" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="18.7133333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -449,9 +1220,9 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -477,9 +1248,9 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -487,7 +1258,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -495,7 +1266,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -503,7 +1274,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -511,125 +1282,199 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1764114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X5" t="s">
-        <v>13</v>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1770712</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1558264</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4002951</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>193423</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1996229</v>
+      </c>
+      <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1665344</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3366111</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -655,9 +1500,9 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -665,7 +1510,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -673,7 +1518,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -681,7 +1526,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -689,125 +1534,199 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1860857</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1732553</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9856817</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1904937</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1931481</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3811417</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1900739</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1936197</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2933167</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1777189</v>
+      </c>
+      <c r="X12" s="2">
+        <v>2933167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -833,9 +1752,9 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -843,7 +1762,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -851,7 +1770,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -859,7 +1778,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -867,125 +1786,199 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1827153</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1802271</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1865664</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4042568</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1946403</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1779212</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3580167</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1678198</v>
+      </c>
+      <c r="R18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1569303</v>
+      </c>
+      <c r="U18" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" t="s">
+        <v>50</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1920118</v>
+      </c>
+      <c r="X18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1011,9 +2004,9 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1021,7 +2014,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1029,7 +2022,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1037,7 +2030,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -1045,153 +2038,212 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X23" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1723216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1889419</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1997033</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4203235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1992592</v>
+      </c>
+      <c r="L24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1728655</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3448667</v>
+      </c>
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1655008</v>
+      </c>
+      <c r="R24" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" t="s">
+        <v>63</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1790731</v>
+      </c>
+      <c r="U24" s="2">
+        <v>5079675</v>
+      </c>
+      <c r="V24" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="2">
+        <v>175678</v>
+      </c>
+      <c r="X24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="A20:X20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="A14:X14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:X4"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="G9:L9"/>
@@ -1202,35 +2254,53 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="A14:X14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:X15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="A20:X20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <headerFooter/>
 </worksheet>
 </file>